--- a/2_TAREA/Tarea_2_Alexander_Nina.xlsx
+++ b/2_TAREA/Tarea_2_Alexander_Nina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaale\Desktop\EXCEL\2_TAREA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9278DEE-FD36-4B99-BBFB-22E7A4419E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A839CE-9E86-4293-86E6-5859D9AEE4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{A8AE7635-29D5-441B-8A80-DDC4E28826E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8AE7635-29D5-441B-8A80-DDC4E28826E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-1540A]h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -258,8 +258,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA4DDC4-F2A3-4695-BA0E-146F58418B3A}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +591,7 @@
     <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -597,7 +600,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -610,7 +613,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -623,7 +626,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -636,14 +639,14 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -657,8 +660,9 @@
         <v>6</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -668,14 +672,15 @@
       <c r="C7" s="7">
         <v>0.6875</v>
       </c>
-      <c r="D7" s="13" t="str">
-        <f>IF(MROUND((C7-B7), "1:00")=B2,D2,IF(MROUND((C7-B7),"1:00")=B3,D3,IF(MROUND((C7-B7),"1:00")=B4,D4,"")))</f>
-        <v/>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="15">
+        <f>IF(HOUR(C7-B7)&lt;=$B$2,$D$2,IF(HOUR(C7-B7)=$B$3,$D$3,IF(HOUR(C7-B7)=$B$4,$D$4)))</f>
+        <v>20</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -685,14 +690,15 @@
       <c r="C8" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D8" s="13">
-        <f t="shared" ref="D8:D9" si="0">MROUND((C8-B8), "1:00")</f>
-        <v>0.125</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="15">
+        <f t="shared" ref="D8:D9" si="0">IF(HOUR(C8-B8)&lt;=$B$2,$D$2,IF(HOUR(C8-B8)=$B$3,$D$3,IF(HOUR(C8-B8)=$B$4,$D$4)))</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -702,19 +708,22 @@
       <c r="C9" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D9" s="15">
+        <f>IF(HOUR(C9-B9)&lt;=$B$2,$D$2,IF(HOUR(C9-B9)=$B$3,$D$3,IF(HOUR(C9-B9)=$B$4,$D$4)))</f>
+        <v>35</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
